--- a/竣工资料/10/10#  2.分项工程验收记录.xlsx
+++ b/竣工资料/10/10#  2.分项工程验收记录.xlsx
@@ -84,7 +84,7 @@
     <t>监理（建设）单位验收意见</t>
   </si>
   <si>
-    <t>1#楼桩基础</t>
+    <t>10#楼桩基础</t>
   </si>
   <si>
     <t>合格</t>
@@ -127,8 +127,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -182,6 +182,56 @@
       <sz val="19"/>
       <name val="黑体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -192,17 +242,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -215,95 +312,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -317,24 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -355,19 +355,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,31 +475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,31 +499,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,91 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,6 +908,48 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,48 +969,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -984,17 +984,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1009,141 +998,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1697,7 +1697,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:I6"/>
+      <selection activeCell="C11" sqref="C11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" customHeight="1"/>

--- a/竣工资料/10/10#  2.分项工程验收记录.xlsx
+++ b/竣工资料/10/10#  2.分项工程验收记录.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>混凝土灌注桩工程</t>
   </si>
@@ -119,15 +120,21 @@
   <si>
     <t>年  月  日</t>
   </si>
+  <si>
+    <t>混凝土施工工程</t>
+  </si>
+  <si>
+    <t>灌注桩</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -185,58 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,23 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -278,17 +220,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,15 +250,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,7 +272,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -335,6 +327,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -355,90 +362,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,7 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,19 +386,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,54 +543,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,57 +920,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -985,15 +950,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1009,141 +989,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1696,13 +1703,13 @@
   <sheetPr/>
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:K11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="3.71428571428571" customWidth="1"/>
+    <col min="1" max="26" width="3.71296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.6" customHeight="1" spans="1:26">
@@ -2039,7 +2046,7 @@
       <c r="Y10" s="16"/>
       <c r="Z10" s="46"/>
     </row>
-    <row r="11" ht="24.6" customHeight="1" spans="1:26">
+    <row r="11" ht="25" customHeight="1" spans="1:26">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -2067,7 +2074,7 @@
       <c r="Y11" s="16"/>
       <c r="Z11" s="46"/>
     </row>
-    <row r="12" ht="24.6" customHeight="1" spans="1:26">
+    <row r="12" ht="25" customHeight="1" spans="1:26">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -2095,7 +2102,7 @@
       <c r="Y12" s="16"/>
       <c r="Z12" s="46"/>
     </row>
-    <row r="13" ht="24.6" customHeight="1" spans="1:26">
+    <row r="13" ht="25" customHeight="1" spans="1:26">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -2123,7 +2130,7 @@
       <c r="Y13" s="16"/>
       <c r="Z13" s="46"/>
     </row>
-    <row r="14" ht="35.6" customHeight="1" spans="1:26">
+    <row r="14" ht="25" customHeight="1" spans="1:26">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -2151,7 +2158,7 @@
       <c r="Y14" s="16"/>
       <c r="Z14" s="46"/>
     </row>
-    <row r="15" ht="24.6" customHeight="1" spans="1:26">
+    <row r="15" ht="25" customHeight="1" spans="1:26">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -2179,7 +2186,7 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="46"/>
     </row>
-    <row r="16" ht="35.6" customHeight="1" spans="1:26">
+    <row r="16" ht="25" customHeight="1" spans="1:26">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -2207,7 +2214,7 @@
       <c r="Y16" s="16"/>
       <c r="Z16" s="46"/>
     </row>
-    <row r="17" ht="24.6" customHeight="1" spans="1:26">
+    <row r="17" ht="25" customHeight="1" spans="1:26">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -2235,7 +2242,7 @@
       <c r="Y17" s="16"/>
       <c r="Z17" s="46"/>
     </row>
-    <row r="18" ht="24.6" customHeight="1" spans="1:26">
+    <row r="18" ht="25" customHeight="1" spans="1:26">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -2263,7 +2270,7 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="46"/>
     </row>
-    <row r="19" ht="24.6" customHeight="1" spans="1:26">
+    <row r="19" ht="25" customHeight="1" spans="1:26">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -2291,7 +2298,7 @@
       <c r="Y19" s="16"/>
       <c r="Z19" s="46"/>
     </row>
-    <row r="20" ht="24.6" customHeight="1" spans="1:26">
+    <row r="20" ht="25" customHeight="1" spans="1:26">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -2319,7 +2326,7 @@
       <c r="Y20" s="16"/>
       <c r="Z20" s="46"/>
     </row>
-    <row r="21" ht="24.6" customHeight="1" spans="1:26">
+    <row r="21" ht="25" customHeight="1" spans="1:26">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -2758,4 +2765,1009 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14814814814815" defaultRowHeight="14.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="26" width="3.71296296296296" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.6" customHeight="1" spans="1:26">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+    </row>
+    <row r="2" ht="24.6" customHeight="1" spans="1:26">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:26">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:26">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" ht="24.6" customHeight="1" spans="1:26">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="43"/>
+    </row>
+    <row r="6" ht="24.6" customHeight="1" spans="1:26">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11">
+        <v>1</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="44"/>
+    </row>
+    <row r="7" ht="24.6" customHeight="1" spans="1:26">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="44"/>
+    </row>
+    <row r="8" ht="24.6" customHeight="1" spans="1:26">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="45"/>
+    </row>
+    <row r="9" ht="24.6" customHeight="1" spans="1:26">
+      <c r="A9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="44"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:26">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="46"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:26">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="46"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:26">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="46"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:26">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="46"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:26">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="46"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:26">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="46"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:26">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="46"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:26">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="46"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:26">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="46"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:26">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="46"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:26">
+      <c r="A20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="47"/>
+    </row>
+    <row r="21" ht="10" customHeight="1" spans="1:26">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="48"/>
+    </row>
+    <row r="22" ht="10" customHeight="1" spans="1:26">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="44"/>
+    </row>
+    <row r="23" ht="10" customHeight="1" spans="1:26">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="44"/>
+    </row>
+    <row r="24" ht="10" customHeight="1" spans="1:26">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="44"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:26">
+      <c r="A25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="49"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:26">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="50"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:26">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="50"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:26">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="50"/>
+    </row>
+    <row r="29" ht="24.6" customHeight="1" spans="1:26">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="51"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="1:26">
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="71">
+    <mergeCell ref="A4:Z4"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:R19"/>
+    <mergeCell ref="A20:Z20"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="U28:Z28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="P29:Z29"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="P30:Z30"/>
+    <mergeCell ref="D1:N2"/>
+    <mergeCell ref="O1:Z2"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:I6"/>
+    <mergeCell ref="J5:M6"/>
+    <mergeCell ref="N5:R6"/>
+    <mergeCell ref="S10:Z19"/>
+    <mergeCell ref="A21:Z24"/>
+    <mergeCell ref="A25:B30"/>
+    <mergeCell ref="C25:M28"/>
+    <mergeCell ref="N25:O30"/>
+    <mergeCell ref="P25:Z27"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>